--- a/Tract 14 WHP Impacts.xlsx
+++ b/Tract 14 WHP Impacts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hilcorp0-my.sharepoint.com/personal/scott_pessetto_hilcorp_com/Documents/code/header_pressure_impact/header_pressure_impact/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{9678CAEE-548E-44B3-8760-FFF24A6EFC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2C06975-F3EA-4884-A9AD-CF0FF9DDF19C}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{9678CAEE-548E-44B3-8760-FFF24A6EFC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31A9D718-6B0F-4B97-AAD0-5D6212FE83C9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{FBFB3C83-6260-49ED-80F1-9A71BB067C5D}"/>
+    <workbookView xWindow="39040" yWindow="2050" windowWidth="28800" windowHeight="18050" xr2:uid="{FBFB3C83-6260-49ED-80F1-9A71BB067C5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Well</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>ESP Avg</t>
+  </si>
+  <si>
+    <t>J-Pad Dev</t>
   </si>
 </sst>
 </file>
@@ -237,14 +240,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -561,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8381BCAD-D22E-4A42-A0AF-F3CE5FC86555}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -576,11 +579,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -607,7 +610,7 @@
       <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>28</v>
       </c>
       <c r="J2" t="s">
@@ -641,11 +644,11 @@
         <v>70.855323587169252</v>
       </c>
       <c r="H3" s="2">
-        <f>+F3/D3</f>
+        <f t="shared" ref="H3:H20" si="0">+F3/D3</f>
         <v>39.256227346315939</v>
       </c>
-      <c r="I3" s="6">
-        <f>+F3/E3</f>
+      <c r="I3" s="5">
+        <f t="shared" ref="I3:I20" si="1">+F3/E3</f>
         <v>10.277321419092647</v>
       </c>
     </row>
@@ -673,11 +676,11 @@
         <v>12.071479922713875</v>
       </c>
       <c r="H4" s="2">
-        <f>+F4/D4</f>
+        <f t="shared" si="0"/>
         <v>9.768589725851168</v>
       </c>
-      <c r="I4" s="6">
-        <f>+F4/E4</f>
+      <c r="I4" s="5">
+        <f t="shared" si="1"/>
         <v>12.21973323206538</v>
       </c>
     </row>
@@ -705,11 +708,11 @@
         <v>5.2603805750049668</v>
       </c>
       <c r="H5" s="2">
-        <f>+F5/D5</f>
+        <f t="shared" si="0"/>
         <v>2.4818124109318349</v>
       </c>
-      <c r="I5" s="6">
-        <f>+F5/E5</f>
+      <c r="I5" s="5">
+        <f t="shared" si="1"/>
         <v>2.6720663347657907</v>
       </c>
     </row>
@@ -731,11 +734,11 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2">
-        <f>+F6/D6</f>
+        <f t="shared" si="0"/>
         <v>3.5459685521746951</v>
       </c>
-      <c r="I6" s="6">
-        <f>+F6/E6</f>
+      <c r="I6" s="5">
+        <f t="shared" si="1"/>
         <v>2.9880561639838747</v>
       </c>
     </row>
@@ -759,15 +762,15 @@
         <v>10</v>
       </c>
       <c r="G7" s="2">
-        <f>+F7/C7</f>
+        <f t="shared" ref="G7:G20" si="2">+F7/C7</f>
         <v>24.440320564490545</v>
       </c>
       <c r="H7" s="2">
-        <f>+F7/D7</f>
+        <f t="shared" si="0"/>
         <v>12.136913140766302</v>
       </c>
-      <c r="I7" s="6">
-        <f>+F7/E7</f>
+      <c r="I7" s="5">
+        <f t="shared" si="1"/>
         <v>14.439452006432903</v>
       </c>
     </row>
@@ -791,15 +794,15 @@
         <v>10</v>
       </c>
       <c r="G8" s="2">
-        <f>+F8/C8</f>
+        <f t="shared" si="2"/>
         <v>14.992398739941176</v>
       </c>
       <c r="H8" s="2">
-        <f>+F8/D8</f>
+        <f t="shared" si="0"/>
         <v>6.1183149802992727</v>
       </c>
-      <c r="I8" s="6">
-        <f>+F8/E8</f>
+      <c r="I8" s="5">
+        <f t="shared" si="1"/>
         <v>3.2702339071183926</v>
       </c>
     </row>
@@ -823,15 +826,15 @@
         <v>10</v>
       </c>
       <c r="G9" s="2">
-        <f>+F9/C9</f>
+        <f t="shared" si="2"/>
         <v>2.5209901946127315</v>
       </c>
       <c r="H9" s="2">
-        <f>+F9/D9</f>
+        <f t="shared" si="0"/>
         <v>2.3405773805264456</v>
       </c>
-      <c r="I9" s="6">
-        <f>+F9/E9</f>
+      <c r="I9" s="5">
+        <f t="shared" si="1"/>
         <v>3.2742998094326001</v>
       </c>
     </row>
@@ -855,15 +858,15 @@
         <v>10</v>
       </c>
       <c r="G10" s="2">
-        <f>+F10/C10</f>
+        <f t="shared" si="2"/>
         <v>14.518346212332613</v>
       </c>
       <c r="H10" s="2">
-        <f>+F10/D10</f>
+        <f t="shared" si="0"/>
         <v>13.544708588909227</v>
       </c>
-      <c r="I10" s="6">
-        <f>+F10/E10</f>
+      <c r="I10" s="5">
+        <f t="shared" si="1"/>
         <v>12.943634345618136</v>
       </c>
     </row>
@@ -887,15 +890,15 @@
         <v>10</v>
       </c>
       <c r="G11" s="2">
-        <f>+F11/C11</f>
+        <f t="shared" si="2"/>
         <v>1.5489425176464582</v>
       </c>
       <c r="H11" s="2">
-        <f>+F11/D11</f>
+        <f t="shared" si="0"/>
         <v>1.1360269299888011</v>
       </c>
-      <c r="I11" s="6">
-        <f>+F11/E11</f>
+      <c r="I11" s="5">
+        <f t="shared" si="1"/>
         <v>1.6716275168984072</v>
       </c>
     </row>
@@ -919,15 +922,15 @@
         <v>10</v>
       </c>
       <c r="G12" s="2">
-        <f>+F12/C12</f>
+        <f t="shared" si="2"/>
         <v>11.509260143449575</v>
       </c>
       <c r="H12" s="2">
-        <f>+F12/D12</f>
+        <f t="shared" si="0"/>
         <v>9.5526595035481012</v>
       </c>
-      <c r="I12" s="6">
-        <f>+F12/E12</f>
+      <c r="I12" s="5">
+        <f t="shared" si="1"/>
         <v>10.096329530566441</v>
       </c>
     </row>
@@ -951,15 +954,15 @@
         <v>10</v>
       </c>
       <c r="G13" s="2">
-        <f>+F13/C13</f>
+        <f t="shared" si="2"/>
         <v>10.688556554931548</v>
       </c>
       <c r="H13" s="2">
-        <f>+F13/D13</f>
+        <f t="shared" si="0"/>
         <v>9.7157782691389301</v>
       </c>
-      <c r="I13" s="6">
-        <f>+F13/E13</f>
+      <c r="I13" s="5">
+        <f t="shared" si="1"/>
         <v>4.2359218324699324</v>
       </c>
     </row>
@@ -983,15 +986,15 @@
         <v>10</v>
       </c>
       <c r="G14" s="2">
-        <f>+F14/C14</f>
+        <f t="shared" si="2"/>
         <v>0.66993823657150631</v>
       </c>
       <c r="H14" s="2">
-        <f>+F14/D14</f>
+        <f t="shared" si="0"/>
         <v>1.1365003123626021</v>
       </c>
-      <c r="I14" s="6">
-        <f>+F14/E14</f>
+      <c r="I14" s="5">
+        <f t="shared" si="1"/>
         <v>1.2034989397641425</v>
       </c>
     </row>
@@ -1015,15 +1018,15 @@
         <v>10</v>
       </c>
       <c r="G15" s="2">
-        <f>+F15/C15</f>
+        <f t="shared" si="2"/>
         <v>4.1121251773484007</v>
       </c>
       <c r="H15" s="2">
-        <f>+F15/D15</f>
+        <f t="shared" si="0"/>
         <v>3.3836672409756798</v>
       </c>
-      <c r="I15" s="6">
-        <f>+F15/E15</f>
+      <c r="I15" s="5">
+        <f t="shared" si="1"/>
         <v>3.4314101951316713</v>
       </c>
     </row>
@@ -1047,15 +1050,15 @@
         <v>10</v>
       </c>
       <c r="G16" s="2">
-        <f>+F16/C16</f>
+        <f t="shared" si="2"/>
         <v>10.730256209689086</v>
       </c>
       <c r="H16" s="2">
-        <f>+F16/D16</f>
+        <f t="shared" si="0"/>
         <v>8.9514769119852673</v>
       </c>
-      <c r="I16" s="6">
-        <f>+F16/E16</f>
+      <c r="I16" s="5">
+        <f t="shared" si="1"/>
         <v>7.5144980222914217</v>
       </c>
     </row>
@@ -1079,15 +1082,15 @@
         <v>10</v>
       </c>
       <c r="G17" s="2">
-        <f>+F17/C17</f>
+        <f t="shared" si="2"/>
         <v>10.361861664437027</v>
       </c>
       <c r="H17" s="2">
-        <f>+F17/D17</f>
+        <f t="shared" si="0"/>
         <v>7.9922463072488839</v>
       </c>
-      <c r="I17" s="6">
-        <f>+F17/E17</f>
+      <c r="I17" s="5">
+        <f t="shared" si="1"/>
         <v>8.5420547382488081</v>
       </c>
     </row>
@@ -1111,15 +1114,15 @@
         <v>10</v>
       </c>
       <c r="G18" s="2">
-        <f>+F18/C18</f>
+        <f t="shared" si="2"/>
         <v>41.919230406004452</v>
       </c>
       <c r="H18" s="2">
-        <f>+F18/D18</f>
+        <f t="shared" si="0"/>
         <v>7.9093574756728628</v>
       </c>
-      <c r="I18" s="6">
-        <f>+F18/E18</f>
+      <c r="I18" s="5">
+        <f t="shared" si="1"/>
         <v>8.0837692346690115</v>
       </c>
     </row>
@@ -1143,15 +1146,15 @@
         <v>10</v>
       </c>
       <c r="G19" s="2">
-        <f>+F19/C19</f>
+        <f t="shared" si="2"/>
         <v>5.7715708609349221</v>
       </c>
       <c r="H19" s="2">
-        <f>+F19/D19</f>
+        <f t="shared" si="0"/>
         <v>4.8513337736222173</v>
       </c>
-      <c r="I19" s="6">
-        <f>+F19/E19</f>
+      <c r="I19" s="5">
+        <f t="shared" si="1"/>
         <v>4.7102945309091444</v>
       </c>
     </row>
@@ -1175,15 +1178,15 @@
         <v>10</v>
       </c>
       <c r="G20" s="2">
-        <f>+F20/C20</f>
+        <f t="shared" si="2"/>
         <v>27.30992620494149</v>
       </c>
       <c r="H20" s="2">
-        <f>+F20/D20</f>
+        <f t="shared" si="0"/>
         <v>30.337105789305522</v>
       </c>
-      <c r="I20" s="7">
-        <f>+F20/E20</f>
+      <c r="I20" s="6">
+        <f t="shared" si="1"/>
         <v>45.915533515422425</v>
       </c>
     </row>
@@ -1232,19 +1235,29 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29">
-        <v>3.45</v>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>1.08</v>
       </c>
     </row>

--- a/Tract 14 WHP Impacts.xlsx
+++ b/Tract 14 WHP Impacts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hilcorp0-my.sharepoint.com/personal/scott_pessetto_hilcorp_com/Documents/code/header_pressure_impact/header_pressure_impact/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{9678CAEE-548E-44B3-8760-FFF24A6EFC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31A9D718-6B0F-4B97-AAD0-5D6212FE83C9}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{9678CAEE-548E-44B3-8760-FFF24A6EFC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC1FD9A7-B0A3-40F7-B1D1-3B8B4233A485}"/>
   <bookViews>
-    <workbookView xWindow="39040" yWindow="2050" windowWidth="28800" windowHeight="18050" xr2:uid="{FBFB3C83-6260-49ED-80F1-9A71BB067C5D}"/>
+    <workbookView xWindow="8120" yWindow="2960" windowWidth="28800" windowHeight="15460" xr2:uid="{FBFB3C83-6260-49ED-80F1-9A71BB067C5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -265,6 +265,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -567,7 +571,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection sqref="A1:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -648,7 +652,7 @@
         <v>39.256227346315939</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" ref="I3:I20" si="1">+F3/E3</f>
+        <f>+F3/E3</f>
         <v>10.277321419092647</v>
       </c>
     </row>
@@ -680,7 +684,7 @@
         <v>9.768589725851168</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I3:I20" si="1">+F4/E4</f>
         <v>12.21973323206538</v>
       </c>
     </row>
